--- a/observations/orbit_plans/mtp043/nomad_mtp043_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp043/nomad_mtp043_plan_generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp043\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFA37E-0D3C-4BCC-B828-4B0F475A56B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB1BEDD-A78D-48B2-83AA-C11591D0A67A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="520">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1957,16 +1957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="13" max="13" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>47</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>47</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>28</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>7</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>14</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>14</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5174,15 +5174,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>3</v>
-      </c>
-      <c r="H162" t="s">
-        <v>35</v>
-      </c>
-      <c r="I162" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L162" t="s">
         <v>269</v>
@@ -5191,7 +5185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5205,7 +5199,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5219,7 +5213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5245,7 +5239,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>47</v>
       </c>
@@ -5265,7 +5259,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5279,7 +5273,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>14</v>
       </c>
@@ -5293,7 +5287,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5316,7 +5310,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5356,7 +5350,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5367,7 +5361,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3</v>
       </c>
@@ -5384,7 +5378,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5407,7 +5401,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>14</v>
       </c>
@@ -5418,7 +5412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3</v>
       </c>
@@ -5435,7 +5429,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5475,7 +5469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5489,7 +5483,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>47</v>
       </c>
@@ -5509,7 +5503,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5526,7 +5520,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5540,7 +5534,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5563,7 +5557,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5586,7 +5580,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3</v>
       </c>
@@ -5603,7 +5597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5626,7 +5620,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5643,7 +5637,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5666,7 +5660,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>14</v>
       </c>
@@ -5680,7 +5674,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5703,7 +5697,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -5743,7 +5737,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5766,7 +5760,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -5780,7 +5774,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5803,7 +5797,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5826,7 +5820,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7</v>
       </c>
@@ -5843,7 +5837,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5866,7 +5860,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -5880,7 +5874,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5906,7 +5900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5929,7 +5923,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -5943,7 +5937,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5966,7 +5960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14</v>
       </c>
@@ -5980,7 +5974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6006,7 +6000,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6034,7 +6028,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6060,7 +6054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -6083,7 +6077,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3</v>
       </c>
@@ -6100,7 +6094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6123,7 +6117,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3</v>
       </c>
@@ -6140,7 +6134,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6163,7 +6157,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6177,7 +6171,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>28</v>
       </c>
@@ -6194,7 +6188,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14</v>
       </c>
@@ -6208,7 +6202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -6231,7 +6225,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6254,7 +6248,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3</v>
       </c>
@@ -6271,7 +6265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6294,7 +6288,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6308,7 +6302,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6334,7 +6328,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6357,7 +6351,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6371,7 +6365,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -6394,7 +6388,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -6408,7 +6402,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6434,7 +6428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6457,7 +6451,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>14</v>
       </c>
@@ -6471,7 +6465,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -6494,7 +6488,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3</v>
       </c>
@@ -6511,7 +6505,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -6534,7 +6528,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14</v>
       </c>
@@ -6548,7 +6542,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6571,7 +6565,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>14</v>
       </c>
@@ -6611,7 +6605,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6637,7 +6631,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -6674,7 +6668,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3</v>
       </c>
@@ -6691,7 +6685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>14</v>
       </c>
@@ -6728,7 +6722,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -6751,7 +6745,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -6768,7 +6762,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6791,7 +6785,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8</v>
       </c>
@@ -6808,7 +6802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -6831,7 +6825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -6854,7 +6848,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3</v>
       </c>
@@ -6871,7 +6865,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -6894,7 +6888,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>14</v>
       </c>
@@ -6908,7 +6902,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -6934,7 +6928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -6957,7 +6951,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>8</v>
       </c>
@@ -6974,7 +6968,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6997,7 +6991,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>14</v>
       </c>
@@ -7011,7 +7005,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7031,7 +7025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7042,7 +7036,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7059,7 +7053,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7091,7 +7085,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7123,7 +7117,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>14</v>
       </c>
@@ -7137,7 +7131,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3</v>
       </c>
@@ -7235,7 +7229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7267,7 +7261,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7290,7 +7284,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>14</v>
       </c>
@@ -7304,7 +7298,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7339,7 +7333,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>14</v>
       </c>
@@ -7353,7 +7347,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7388,7 +7382,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7420,7 +7414,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3</v>
       </c>
@@ -7437,7 +7431,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7469,7 +7463,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>14</v>
       </c>
@@ -7483,7 +7477,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -7515,7 +7509,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -7550,7 +7544,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>14</v>
       </c>
@@ -7564,7 +7558,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -7596,7 +7590,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3</v>
       </c>
@@ -7613,7 +7607,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7645,7 +7639,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>14</v>
       </c>
@@ -7659,7 +7653,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7691,7 +7685,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -7723,7 +7717,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7740,7 +7734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -7772,7 +7766,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>14</v>
       </c>
@@ -7786,7 +7780,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -7818,7 +7812,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>7</v>
       </c>
@@ -7835,7 +7829,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -7858,7 +7852,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -7890,7 +7884,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>14</v>
       </c>
@@ -7904,7 +7898,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>14</v>
       </c>
@@ -7918,7 +7912,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -7953,7 +7947,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -7967,7 +7961,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
@@ -7999,7 +7993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -8031,7 +8025,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>14</v>
       </c>
@@ -8045,7 +8039,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>28</v>
       </c>
@@ -8071,7 +8065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8085,7 +8079,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8120,7 +8114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8152,7 +8146,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8166,7 +8160,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8198,7 +8192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3</v>
       </c>
@@ -8215,7 +8209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>14</v>
       </c>
@@ -8229,7 +8223,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8264,7 +8258,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8278,7 +8272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8310,7 +8304,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -8345,7 +8339,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8359,7 +8353,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8373,7 +8367,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8408,7 +8402,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8422,7 +8416,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8445,7 +8439,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8459,7 +8453,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8473,7 +8467,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
@@ -8508,7 +8502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8540,7 +8534,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
@@ -8554,7 +8548,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8589,7 +8583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>14</v>
       </c>
@@ -8603,7 +8597,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3</v>
       </c>
@@ -8620,7 +8614,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -8652,7 +8646,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8684,7 +8678,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8701,7 +8695,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1</v>
       </c>
@@ -8724,7 +8718,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>14</v>
       </c>
@@ -8738,7 +8732,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8752,7 +8746,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>3</v>
       </c>
@@ -8769,7 +8763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1</v>
       </c>
@@ -8801,7 +8795,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -8833,7 +8827,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>14</v>
       </c>
@@ -8847,7 +8841,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1</v>
       </c>
@@ -8879,7 +8873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>3</v>
       </c>
@@ -8896,7 +8890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -8910,7 +8904,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
@@ -8942,7 +8936,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>28</v>
       </c>
@@ -8959,7 +8953,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1</v>
       </c>
@@ -8982,7 +8976,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9005,7 +8999,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>14</v>
       </c>
